--- a/document/data source_課程資料/國中/skills_info/skill_info_數學2上.xlsx
+++ b/document/data source_課程資料/國中/skills_info/skill_info_數學2上.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\國中\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="已上是後半部分 請合併送出" sheetId="1" r:id="rId4"/>
+    <sheet name="已上是後半部分 請合併送出" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a+b)² = a² + 2ab + b²，檢查「中間項 2ab」是否漏掉或計算錯誤。</t>
-  </si>
-  <si>
     <t>jh_formula_square_of_diff_expand</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練應用 (a-b)² = a² - 2ab + b² 進行展開。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a-b)² = a² - 2ab + b²，檢查「中間項 -2ab」的符號。</t>
-  </si>
-  <si>
     <t>jh_formula_diff_of_squares_expand</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練應用 (a+b)(a-b) = a² - b² 進行展開。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a+b)(a-b) = a² - b²，檢查是否寫成 a² - 2ab + b²。</t>
-  </si>
-  <si>
     <t>jh_poly_def_terms_degree</t>
   </si>
   <si>
@@ -106,9 +105,6 @@
     <t>熟練辨識多項式的項、係數、次數，並進行升冪或降冪排列。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「次數」是 x 的最高次方，「x² 項係數」是 x² 前面的數字。</t>
-  </si>
-  <si>
     <t>jh_poly_ops_add_sub_simple</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>熟練多項式的加法與減法（同類項合併與去括號變號）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「減去」一個多項式時，括號內的「每一項」都要變號。</t>
-  </si>
-  <si>
     <t>jh_poly_ops_multiply_mono</t>
   </si>
   <si>
@@ -136,9 +129,6 @@
     <t>熟練單項式乘以多項式（應用分配律）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 3x(2x - 5) = (3x)(2x) + (3x)(-5) = 6x² - 15x，注意指數相加。</t>
-  </si>
-  <si>
     <t>jh_poly_ops_multiply_poly</t>
   </si>
   <si>
@@ -151,9 +141,6 @@
     <t>熟練多項式乘以多項式（應用分配律或直式乘法）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生使用直式乘法，並檢查是否有漏乘的項或同類項合併錯誤。</t>
-  </si>
-  <si>
     <t>jh_poly_ops_divide_poly</t>
   </si>
   <si>
@@ -166,9 +153,6 @@
     <t>熟練使用長除法（分離係數法）計算多項式的商式與餘式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查長除法過程中，每一步的「減法」是否正確（注意正負號），以及「缺項補 0」。</t>
-  </si>
-  <si>
     <t>jh_poly_division_relation</t>
   </si>
   <si>
@@ -181,9 +165,6 @@
     <t>熟練應用 A = BQ + R (被除式 = 除式 × 商式 + 餘式)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 A = BQ + R，並檢查餘式 R 的次數是否小於除式 B 的次數。</t>
-  </si>
-  <si>
     <t>jh_sqrt_def</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練辨識「a 的平方根」與「√a」(a 的算術平方根) 的區別。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「9 的平方根」是 ±3；但「√9」(9 的正平方根) 僅代表 3。</t>
-  </si>
-  <si>
     <t>jh_sqrt_positive_negative</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練計算一個正數的「正平方根」與「負平方根」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「負數沒有平方根」，「0 的平方根是 0」。</t>
-  </si>
-  <si>
     <t>jh_sqrt_simplify_perfect_square</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練化簡 √a² = |a|。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 √a² = |a|，所以 √( (-5)² ) = |-5| = 5。</t>
-  </si>
-  <si>
     <t>jh_sqrt_ops_multiply</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練根式乘法 √a × √b = √ab (a≥0, b≥0)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 √3 × √5 = √15。</t>
-  </si>
-  <si>
     <t>jh_sqrt_ops_divide</t>
   </si>
   <si>
@@ -259,9 +228,6 @@
     <t>熟練根式除法 √a / √b = √(a/b) (a≥0, b&gt;0)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 √15 / √3 = √(15/3) = √5。</t>
-  </si>
-  <si>
     <t>jh_sqrt_combine_like_terms</t>
   </si>
   <si>
@@ -274,9 +240,6 @@
     <t>熟練化簡並合併同類方根（例如 3√2 + 5√2 = 8√2）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「根號內數字相同」的才能合併，如同 3x + 5x = 8x。</t>
-  </si>
-  <si>
     <t>jh_pythagorean_theorem_calc</t>
   </si>
   <si>
@@ -289,9 +252,6 @@
     <t>熟練應用畢氏定理 a² + b² = c² 求解直角三角形的邊長。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 a² + b² = c² (c 是斜邊)，並檢查是算「股」還是「斜邊」。</t>
-  </si>
-  <si>
     <t>jh_pythagorean_theorem_converse</t>
   </si>
   <si>
@@ -304,9 +264,6 @@
     <t>熟練應用畢氏逆定理，判斷 a, b, c 三邊是否構成「直角」三角形。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生檢查是否 a² + b² = c² (兩小邊平方和 = 最大邊平方)，若是，則為直角三角形。</t>
-  </si>
-  <si>
     <t>jh_factor_def_check</t>
   </si>
   <si>
@@ -322,9 +279,6 @@
     <t>熟練判斷一個多項式是否為另一個多項式的因式（餘式為 0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「因式分解」是將「和/差」的多項式，寫成「乘積」的形式。</t>
-  </si>
-  <si>
     <t>jh_factor_common_factor</t>
   </si>
   <si>
@@ -337,9 +291,6 @@
     <t>熟練使用「提公因式法」進行因式分解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生找出「各項」都有的「共同」因式，並將其提出。</t>
-  </si>
-  <si>
     <t>jh_factor_grouping</t>
   </si>
   <si>
@@ -352,9 +303,6 @@
     <t>熟練使用「分組提公因式法」（四項）進行因式分解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. (兩兩分組) 2. (分別提公因式) 3. (提出新的公因式)。</t>
-  </si>
-  <si>
     <t>jh_factor_diff_of_squares</t>
   </si>
   <si>
@@ -367,9 +315,6 @@
     <t>熟練應用 a² - b² = (a+b)(a-b) 進行因式分解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生公式 a² - b² = (a+b)(a-b)，並檢查 a 和 b 是否找對。</t>
-  </si>
-  <si>
     <t>jh_factor_square_of_sum_diff</t>
   </si>
   <si>
@@ -382,9 +327,6 @@
     <t>熟練應用 a² ± 2ab + b² = (a ± b)² 進行因式分解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查 1. 「頭尾」是否為平方數 (a², b²)。 2. 「中間項」是否符合 2ab。</t>
-  </si>
-  <si>
     <t>jh_factor_cross_method_x2</t>
   </si>
   <si>
@@ -397,9 +339,6 @@
     <t>熟練 x² + px + q = (x+a)(x+b)，其中 a+b=p 且 ab=q。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生找出「哪兩個數相乘 = q，相加 = p」。</t>
-  </si>
-  <si>
     <t>jh_factor_cross_method_mx2</t>
   </si>
   <si>
@@ -412,9 +351,6 @@
     <t>熟練使用十字交乘法分解 mx² + px + q。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生使用十字交乘法，並檢查「交叉相乘後相加」是否等於中間項 px。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_def_check</t>
   </si>
   <si>
@@ -430,9 +366,6 @@
     <t>熟練辨識一元二次方程式，並將其化為 ax² + bx + c = 0 的一般式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「一元二次」代表未知數最高次方為 2，且 a (二次項係數) 不可為 0。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_solve_factor_ab_0</t>
   </si>
   <si>
@@ -445,9 +378,6 @@
     <t>熟練應用 A·B = 0 ⇒ A=0 或 B=0 求解已因式分解的方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (x-2)(x+3) = 0 ⇒ x-2=0 或 x+3=0，解得 x=2 或 x=-3。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_solve_sqrt</t>
   </si>
   <si>
@@ -460,9 +390,6 @@
     <t>熟練使用平方根法解 x² = k 或 (x-a)² = k 形式的方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (x-1)² = 5 ⇒ x-1 = ±√5 ⇒ x = 1 ± √5。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_solve_complete_square</t>
   </si>
   <si>
@@ -475,9 +402,6 @@
     <t>熟練使用「配方法」解一元二次方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 移常數項 2. 兩邊同加「一次項係數一半的平方」 3. 寫成 (x-a)² = k。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_solve_formula</t>
   </si>
   <si>
@@ -490,9 +414,6 @@
     <t>熟練應用一元二次方程式公式解 x = [-b ± √(b²-4ac)] / 2a。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 判斷 a, b, c。 2. 代入公式 x = [-b ± √(b²-4ac)] / 2a。 3. 檢查 D = b²-4ac 的計算。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_discriminant</t>
   </si>
   <si>
@@ -505,9 +426,6 @@
     <t>熟練使用判別式 D = b²-4ac 判斷根的性質（兩相異實根、重根、無實根）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 D &gt; 0 (兩相異實根)；D = 0 (重根)；D &lt; 0 (無實根)。</t>
-  </si>
-  <si>
     <t>jh_equation_quad_word_problem</t>
   </si>
   <si>
@@ -520,9 +438,6 @@
     <t>熟練依題意列出一元二次方程式並求解，且能判斷解的合理性（不合的解要捨去）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 檢查「列式」是否正確。 2. 檢查「公式解」或「因式分解」是否正確。 3. 檢查答案是否符合題意（例如：長度不能是負數）。</t>
-  </si>
-  <si>
     <t>jh_stats_relative_freq</t>
   </si>
   <si>
@@ -538,9 +453,6 @@
     <t>熟練計算「相對次數」 = (該組次數) / (總次數) (常以 % 表示)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「相對次數 (%)」 = (該組次數 ÷ 總次數) × 100%。</t>
-  </si>
-  <si>
     <t>jh_stats_cumulative_relative_freq</t>
   </si>
   <si>
@@ -553,23 +465,326 @@
     <t>熟練計算「累積相對次數」分配表與折線圖。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生將「相對次數」由小到大累加，最後一組應為 100%。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a+b)² = a² + 2ab + b²，檢查「中間項 2ab」是否漏掉或計算錯誤。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a-b)² = a² - 2ab + b²，檢查「中間項 -2ab」的符號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a+b)(a-b) = a² - b²，檢查是否寫成 a² - 2ab + b²。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「次數」是 x 的最高次方，「x² 項係數」是 x² 前面的數字。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「減去」一個多項式時，括號內的「每一項」都要變號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 3x(2x - 5) = (3x)(2x) + (3x)(-5) = 6x² - 15x，注意指數相加。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用直式乘法，並檢查是否有漏乘的項或同類項合併錯誤。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查長除法過程中，每一步的「減法」是否正確（注意正負號），以及「缺項補 0」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 A = BQ + R，並檢查餘式 R 的次數是否小於除式 B 的次數。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「9 的平方根」是 ±3；但「√9」(9 的正平方根) 僅代表 3。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「負數沒有平方根」，「0 的平方根是 0」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 √a² = |a|，所以 √( (-5)² ) = |-5| = 5。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 √3 × √5 = √15。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 √15 / √3 = √(15/3) = √5。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「根號內數字相同」的才能合併，如同 3x + 5x = 8x。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 a² + b² = c² (c 是斜邊)，並檢查是算「股」還是「斜邊」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生檢查是否 a² + b² = c² (兩小邊平方和 = 最大邊平方)，若是，則為直角三角形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「因式分解」是將「和/差」的多項式，寫成「乘積」的形式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生找出「各項」都有的「共同」因式，並將其提出。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. (兩兩分組) 2. (分別提公因式) 3. (提出新的公因式)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生公式 a² - b² = (a+b)(a-b)，並檢查 a 和 b 是否找對。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 1. 「頭尾」是否為平方數 (a², b²)。 2. 「中間項」是否符合 2ab。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生找出「哪兩個數相乘 = q，相加 = p」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用十字交乘法，並檢查「交叉相乘後相加」是否等於中間項 px。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「一元二次」代表未知數最高次方為 2，且 a (二次項係數) 不可為 0。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (x-2)(x+3) = 0 ⇒ x-2=0 或 x+3=0，解得 x=2 或 x=-3。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (x-1)² = 5 ⇒ x-1 = ±√5 ⇒ x = 1 ± √5。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 移常數項 2. 兩邊同加「一次項係數一半的平方」 3. 寫成 (x-a)² = k。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 判斷 a, b, c。 2. 代入公式 x = [-b ± √(b²-4ac)] / 2a。 3. 檢查 D = b²-4ac 的計算。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 D &gt; 0 (兩相異實根)；D = 0 (重根)；D &lt; 0 (無實根)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 檢查「列式」是否正確。 2. 檢查「公式解」或「因式分解」是否正確。 3. 檢查答案是否符合題意（例如：長度不能是負數）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「相對次數 (%)」 = (該組次數 ÷ 總次數) × 100%。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生將「相對次數」由小到大累加，最後一組應為 100%。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -578,36 +793,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -797,20 +1019,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +1069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,1025 +1089,1025 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5140.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5150.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5160.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5170.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>5180.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>5190.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>5200.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>5210.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>5220.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>5230.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>5240.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5250.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>5260.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>5270.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5280.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>5290.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>5300.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5310.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>5320.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>5330.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>5340.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5350.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5360.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>5370.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5380.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5390.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5400.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5410.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5420.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>5430.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5440.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>5450.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>15</v>
@@ -1889,16 +2116,17 @@
         <v>180</v>
       </c>
       <c r="H34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <v>5460.0</v>
+        <v>5460</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>